--- a/Assignment_3/DataVerzamelen.xlsx
+++ b/Assignment_3/DataVerzamelen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>Country</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>GDP</t>
+  </si>
+  <si>
+    <t>AVG Speed</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="###0"/>
+    <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -805,7 +808,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1141,7 @@
     <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1151,11 @@
       <c r="C1" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,15 +1163,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>27742</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>18395</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>12144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>91939</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1255,11 @@
       <c r="C11">
         <v>541748</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1265,8 +1277,11 @@
       <c r="C13">
         <v>387299</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,8 +1291,11 @@
       <c r="C14">
         <v>1256640</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,79 +1314,112 @@
         <v>35686</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>16546</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>31823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>16509</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>226760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>12837</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>470179</v>
+      </c>
+      <c r="D20">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>912</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>29911</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>50446</v>
+      </c>
+      <c r="D22">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>6165</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>31823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1427,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1384,23 +1435,32 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>831</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>11897</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>35699</v>
+      </c>
+      <c r="D29">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1408,63 +1468,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>480780</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1772589</v>
+      </c>
+      <c r="D31">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>324</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>384</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>10948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>69353</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>48126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>26176</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1532343</v>
+      </c>
+      <c r="D37">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1472,47 +1559,65 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>552</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>39820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>4371</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>662483</v>
+      </c>
+      <c r="D42">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>14696</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>34649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1520,47 +1625,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>75340</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>234903</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>5033</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>30870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>1098155</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>11391619</v>
+      </c>
+      <c r="D47">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>74876</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>274135</v>
+      </c>
+      <c r="D48">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>3564</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>57689</v>
+      </c>
+      <c r="D49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1700,7 @@
         <v>25196</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1576,15 +1708,18 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>397</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1592,111 +1727,174 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>4259</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>19931</v>
+      </c>
+      <c r="D54">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>11455</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>193535</v>
+      </c>
+      <c r="D55">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>202102</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>3365293</v>
+      </c>
+      <c r="D56">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>362</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>2340</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>302571</v>
+      </c>
+      <c r="D58">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>4731</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>19549</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>71457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>114749</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>168318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>13428</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>99118</v>
+      </c>
+      <c r="D62">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>1912</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>23476</v>
+      </c>
+      <c r="D63">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>171326</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>330159</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>143909</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>1252163</v>
+      </c>
+      <c r="D65">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>3229</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>69218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1704,31 +1902,43 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>618</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>239186</v>
+      </c>
+      <c r="D68">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1736,55 +1946,79 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>50667</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>2488284</v>
+      </c>
+      <c r="D72">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>1692</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>14563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>44080</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>2649893</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>4316</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>14463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1792,7 +2026,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +2034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1808,23 +2042,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -1832,31 +2072,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>11638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>44198</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>195878</v>
+      </c>
+      <c r="D85">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>17657</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>68389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -1864,87 +2116,135 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>27214</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>316070</v>
+      </c>
+      <c r="D90">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>2309</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>31578</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>49855</v>
+      </c>
+      <c r="D92">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>2315</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>34510</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>117065</v>
+      </c>
+      <c r="D94">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>357036</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>940953</v>
+      </c>
+      <c r="D95">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>9118</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>307917</v>
+      </c>
+      <c r="D96">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>28322</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>311739</v>
+      </c>
+      <c r="D97">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -1952,15 +2252,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>1152149</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>2250987</v>
+      </c>
+      <c r="D99">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -1968,39 +2274,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>31173</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>156323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>285827</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>412304</v>
+      </c>
+      <c r="D102">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>19444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>252711</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>1852499</v>
+      </c>
+      <c r="D104">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -2008,71 +2332,101 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>1290</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>10165</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>39453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>230348</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>4730300</v>
+      </c>
+      <c r="D108">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>8428</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>69170</v>
+      </c>
+      <c r="D109">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>11546</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>9965</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>19386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -2080,23 +2434,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>77835</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>1404383</v>
+      </c>
+      <c r="D115">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>8386</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>110455</v>
+      </c>
+      <c r="D116">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -2104,31 +2470,40 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>84856</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>128109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>4159</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>13761</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>10533</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>51815</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -2136,71 +2511,110 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>27668</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>82239</v>
+      </c>
+      <c r="D122">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>11209</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>42776</v>
+      </c>
+      <c r="D125">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>1561</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>60984</v>
+      </c>
+      <c r="D126">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>2760</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>27945</v>
+      </c>
+      <c r="D127">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>14742</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>39389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>105953</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>104908</v>
+      </c>
+      <c r="D129">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -2208,23 +2622,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>9476</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>332</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2232,135 +2652,195 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>1277</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>28479</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>10492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>1018</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>14103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>3006</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>68277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>5076</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>11164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>1457</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>10463</v>
+      </c>
+      <c r="D142">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>5139</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>790</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>816</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>189146</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>1063606</v>
+      </c>
+      <c r="D146">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>86081</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>302748</v>
+      </c>
+      <c r="D147">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>2284</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>10183</v>
+      </c>
+      <c r="D149">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -2368,15 +2848,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -2384,47 +2867,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>30556</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>415080</v>
+      </c>
+      <c r="D153">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>607</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>11573</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>769930</v>
+      </c>
+      <c r="D155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>2074</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>376268</v>
+      </c>
+      <c r="D156">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>14544</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>21154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -2432,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -2440,39 +2947,60 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>9610</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>179359</v>
+      </c>
+      <c r="D160">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>9322</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>59675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>4685</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>55227</v>
+      </c>
+      <c r="D162">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>73832</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>180291</v>
+      </c>
+      <c r="D163">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -2480,39 +3008,57 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>19915</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>99152</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>311687</v>
+      </c>
+      <c r="D166">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>250058</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>271050</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>156433</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>467350</v>
+      </c>
+      <c r="D168">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -2520,15 +3066,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>2313</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>100852</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -2536,39 +3085,60 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>16365</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>205860</v>
+      </c>
+      <c r="D172">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>3834</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>27323</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>5193</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>156595</v>
+      </c>
+      <c r="D175">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -2576,127 +3146,193 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>118844</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>186514</v>
+      </c>
+      <c r="D177">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>34459</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>37755</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>579619</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>1267754</v>
+      </c>
+      <c r="D179">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>584</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>8341</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>94775</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>637785</v>
+      </c>
+      <c r="D181">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>10602</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>94297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>13541</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>517440</v>
+      </c>
+      <c r="D185">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>14688</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>296642</v>
+      </c>
+      <c r="D186">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>3167</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>44122</v>
+      </c>
+      <c r="D187">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>5517</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>90263</v>
+      </c>
+      <c r="D188">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>6207</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>14870</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -2704,23 +3340,29 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>693</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -2728,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -2736,15 +3378,18 @@
         <v>599</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>1312</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>26610</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -2752,15 +3397,18 @@
         <v>8079</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -2768,151 +3416,220 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>214518</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>390592</v>
+      </c>
+      <c r="D203">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>209</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>221</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>36573</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>53908</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>42388</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>102976</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>735716</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>968</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>22809</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>177901</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>519149</v>
+      </c>
+      <c r="D211">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>3643</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>46695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>150875</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>87198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>1350</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>25613</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>85108</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>2649893</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>268296</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>18561934</v>
+      </c>
+      <c r="D216">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>33655</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>54374</v>
+      </c>
+      <c r="D217">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>6209</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>66797</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -2920,23 +3637,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>80146</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>333715</v>
+      </c>
+      <c r="D221">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -2944,7 +3670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -2952,23 +3678,32 @@
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>1162444</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>200493</v>
+      </c>
+      <c r="D224">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -2976,23 +3711,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>4248</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>31326</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -3000,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -3008,31 +3749,43 @@
         <v>16103</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>45507</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>280367</v>
+      </c>
+      <c r="D231">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>775</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>20574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>834</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>14193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>

--- a/Assignment_3/DataVerzamelen.xlsx
+++ b/Assignment_3/DataVerzamelen.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hugo\Documents\GitHub\EconomicsOfCyber\Assignment_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Country</t>
   </si>
@@ -735,12 +730,15 @@
   </si>
   <si>
     <t>AVG Speed</t>
+  </si>
+  <si>
+    <t>IQ (https://iq-research.info/en/page/average-iq-by-country)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
@@ -1121,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,19 +1127,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="11.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,16 +1154,22 @@
       <c r="D1" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1173,8 +1179,11 @@
       <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1193,11 @@
       <c r="C4">
         <v>18395</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1207,11 @@
       <c r="C5">
         <v>1303</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1214,8 +1229,11 @@
       <c r="C7">
         <v>12144</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1225,8 +1243,11 @@
       <c r="C8">
         <v>10754</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1255,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1265,11 @@
       <c r="C10">
         <v>91939</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,8 +1282,11 @@
       <c r="D11">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1280,8 +1307,11 @@
       <c r="D13">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1294,8 +1324,11 @@
       <c r="D14">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1336,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1313,8 +1346,11 @@
       <c r="C16">
         <v>35686</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1324,8 +1360,11 @@
       <c r="C17">
         <v>31823</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,8 +1374,11 @@
       <c r="C18">
         <v>4473</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1346,8 +1388,11 @@
       <c r="C19">
         <v>226760</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1360,8 +1405,11 @@
       <c r="D20">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1371,8 +1419,11 @@
       <c r="C21">
         <v>12006</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1385,8 +1436,11 @@
       <c r="D22">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1396,8 +1450,11 @@
       <c r="C23">
         <v>31823</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,8 +1464,11 @@
       <c r="C24">
         <v>2742</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1478,11 @@
       <c r="C25">
         <v>8930</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1490,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1435,7 +1498,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1445,8 +1508,11 @@
       <c r="C28">
         <v>10458</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1459,8 +1525,11 @@
       <c r="D29">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1551,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1492,8 +1561,11 @@
       <c r="C32">
         <v>9047</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1503,8 +1575,11 @@
       <c r="C33">
         <v>2085</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1514,8 +1589,11 @@
       <c r="C34">
         <v>10948</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1525,8 +1603,11 @@
       <c r="C35">
         <v>48126</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1536,8 +1617,11 @@
       <c r="C36">
         <v>1770</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1550,8 +1634,11 @@
       <c r="D37">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1646,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1569,8 +1656,11 @@
       <c r="C39">
         <v>39820</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1580,8 +1670,11 @@
       <c r="C40">
         <v>1782</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1591,8 +1684,11 @@
       <c r="C41">
         <v>8834</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1605,8 +1701,11 @@
       <c r="D42">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1616,8 +1715,11 @@
       <c r="C43">
         <v>34649</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1638,8 +1740,11 @@
       <c r="D45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1649,8 +1754,11 @@
       <c r="C46">
         <v>30870</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1663,8 +1771,11 @@
       <c r="D47">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1677,8 +1788,11 @@
       <c r="D48">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1691,8 +1805,11 @@
       <c r="D49">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1700,15 +1817,18 @@
         <v>25196</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1719,7 +1839,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1727,7 +1847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1740,8 +1860,11 @@
       <c r="D54">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1754,8 +1877,11 @@
       <c r="D55">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1768,8 +1894,11 @@
       <c r="D56">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1779,8 +1908,11 @@
       <c r="C57">
         <v>1894</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1793,8 +1925,11 @@
       <c r="D58">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1804,8 +1939,11 @@
       <c r="C59">
         <v>524</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1815,8 +1953,11 @@
       <c r="C60">
         <v>71457</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1826,8 +1967,11 @@
       <c r="C61">
         <v>168318</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1840,8 +1984,11 @@
       <c r="D62">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1854,8 +2001,11 @@
       <c r="D63">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1868,8 +2018,11 @@
       <c r="D64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1882,8 +2035,11 @@
       <c r="D65">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1893,8 +2049,11 @@
       <c r="C66">
         <v>69218</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1902,7 +2061,7 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1915,8 +2074,11 @@
       <c r="D68">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1926,8 +2088,11 @@
       <c r="C69">
         <v>4556</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1937,8 +2102,11 @@
       <c r="C70">
         <v>325</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1946,7 +2114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1959,8 +2127,11 @@
       <c r="D72">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1970,8 +2141,11 @@
       <c r="C73">
         <v>14563</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1984,8 +2158,11 @@
       <c r="D74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +2173,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -2006,8 +2183,11 @@
       <c r="C76">
         <v>14463</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -2018,15 +2198,18 @@
         <v>6754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>6877</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -2034,7 +2217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2042,7 +2225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -2052,8 +2235,11 @@
       <c r="C81">
         <v>886</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2063,8 +2249,11 @@
       <c r="C82">
         <v>1168</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2072,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2082,8 +2271,11 @@
       <c r="C84">
         <v>11638</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -2096,8 +2288,11 @@
       <c r="D85">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2107,8 +2302,11 @@
       <c r="C86">
         <v>68389</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -2116,7 +2314,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2126,8 +2324,11 @@
       <c r="C88">
         <v>1168</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -2137,8 +2338,11 @@
       <c r="C89">
         <v>3456</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2151,8 +2355,11 @@
       <c r="D90">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -2163,7 +2370,7 @@
         <v>20930</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -2176,8 +2383,11 @@
       <c r="D92">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2187,8 +2397,11 @@
       <c r="C93">
         <v>8259</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -2201,8 +2414,11 @@
       <c r="D94">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -2215,8 +2431,11 @@
       <c r="D95">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -2229,8 +2448,11 @@
       <c r="D96">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -2243,8 +2465,11 @@
       <c r="D97">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2252,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -2265,8 +2490,11 @@
       <c r="D99">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -2274,7 +2502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -2284,8 +2512,11 @@
       <c r="C101">
         <v>156323</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2298,8 +2529,11 @@
       <c r="D102">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -2309,8 +2543,11 @@
       <c r="C103">
         <v>19444</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -2323,8 +2560,11 @@
       <c r="D104">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -2332,7 +2572,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -2342,8 +2582,11 @@
       <c r="C106">
         <v>13779</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -2353,8 +2596,11 @@
       <c r="C107">
         <v>39453</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -2367,8 +2613,11 @@
       <c r="D108">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -2381,8 +2630,11 @@
       <c r="D109">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -2392,8 +2644,11 @@
       <c r="C110">
         <v>5794</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -2403,8 +2658,11 @@
       <c r="C111">
         <v>19386</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -2414,8 +2672,11 @@
       <c r="C112">
         <v>622</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -2425,8 +2686,11 @@
       <c r="C113">
         <v>955</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -2434,7 +2698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -2447,8 +2711,11 @@
       <c r="D115">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -2461,8 +2728,11 @@
       <c r="D116">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -2470,7 +2740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -2480,8 +2750,11 @@
       <c r="C118">
         <v>128109</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -2491,8 +2764,11 @@
       <c r="C119">
         <v>13761</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -2502,8 +2778,11 @@
       <c r="C120">
         <v>51815</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -2511,7 +2790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -2524,8 +2803,11 @@
       <c r="D122">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -2535,8 +2817,11 @@
       <c r="C123">
         <v>2168</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -2546,8 +2831,11 @@
       <c r="C124">
         <v>1806</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -2560,8 +2848,11 @@
       <c r="D125">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -2574,8 +2865,11 @@
       <c r="D126">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -2588,8 +2882,11 @@
       <c r="D127">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -2599,8 +2896,11 @@
       <c r="C128">
         <v>39389</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -2613,8 +2913,11 @@
       <c r="D129">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -2622,7 +2925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -2632,8 +2935,11 @@
       <c r="C131">
         <v>6650</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -2644,7 +2950,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2652,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -2662,8 +2968,11 @@
       <c r="C134">
         <v>9740</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -2673,8 +2982,11 @@
       <c r="C135">
         <v>188</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -2684,8 +2996,11 @@
       <c r="C136">
         <v>10492</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -2695,8 +3010,11 @@
       <c r="C137">
         <v>14103</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -2706,8 +3024,11 @@
       <c r="C138">
         <v>68277</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -2717,8 +3038,11 @@
       <c r="C139">
         <v>11164</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -2729,7 +3053,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -2739,8 +3063,11 @@
       <c r="C141">
         <v>4718</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -2753,8 +3080,11 @@
       <c r="D142">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -2764,8 +3094,11 @@
       <c r="C143">
         <v>11740</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -2775,8 +3108,11 @@
       <c r="C144">
         <v>3270</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -2786,8 +3122,11 @@
       <c r="C145">
         <v>5474</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -2800,8 +3139,11 @@
       <c r="D146">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -2814,8 +3156,11 @@
       <c r="D147">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -2825,8 +3170,11 @@
       <c r="C148">
         <v>12045</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -2839,8 +3187,11 @@
       <c r="D149">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -2848,7 +3199,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -2858,8 +3209,11 @@
       <c r="C151">
         <v>7566</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -2867,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -2880,8 +3234,11 @@
       <c r="D153">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -2891,8 +3248,11 @@
       <c r="C154">
         <v>13413</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -2905,8 +3265,11 @@
       <c r="D155">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -2919,8 +3282,11 @@
       <c r="D156">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -2930,8 +3296,11 @@
       <c r="C157">
         <v>21154</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -2939,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -2947,7 +3316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -2961,7 +3330,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -2971,8 +3340,11 @@
       <c r="C161">
         <v>59675</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -2985,8 +3357,11 @@
       <c r="D162">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -2999,8 +3374,11 @@
       <c r="D163">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -3008,7 +3386,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -3018,8 +3396,11 @@
       <c r="C165">
         <v>19915</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -3032,8 +3413,11 @@
       <c r="D166">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -3043,8 +3427,11 @@
       <c r="C167">
         <v>271050</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -3057,8 +3444,11 @@
       <c r="D168">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -3066,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -3077,7 +3467,7 @@
         <v>100852</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -3085,7 +3475,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -3098,8 +3488,11 @@
       <c r="D172">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -3110,7 +3503,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -3123,8 +3516,11 @@
       <c r="D174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -3137,8 +3533,11 @@
       <c r="D175">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -3146,7 +3545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -3159,8 +3558,11 @@
       <c r="D177">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -3170,8 +3572,11 @@
       <c r="C178">
         <v>37755</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -3184,8 +3589,11 @@
       <c r="D179">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -3195,8 +3603,11 @@
       <c r="C180">
         <v>8341</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -3209,8 +3620,11 @@
       <c r="D181">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -3220,8 +3634,11 @@
       <c r="C182">
         <v>1218</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -3231,8 +3648,11 @@
       <c r="C183">
         <v>1419</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -3242,8 +3662,11 @@
       <c r="C184">
         <v>94297</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -3256,8 +3679,11 @@
       <c r="D185">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -3270,8 +3696,11 @@
       <c r="D186">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -3284,8 +3713,11 @@
       <c r="D187">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -3298,8 +3730,11 @@
       <c r="D188">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -3309,8 +3744,11 @@
       <c r="C189">
         <v>4289</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -3321,7 +3759,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -3331,16 +3769,22 @@
       <c r="C191">
         <v>14870</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -3350,8 +3794,11 @@
       <c r="C193">
         <v>4137</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -3362,15 +3809,18 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -3378,7 +3828,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -3388,8 +3838,11 @@
       <c r="C197">
         <v>26610</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -3397,7 +3850,7 @@
         <v>8079</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -3407,8 +3860,11 @@
       <c r="C199">
         <v>3430</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -3416,7 +3872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -3426,8 +3882,11 @@
       <c r="C201">
         <v>10441</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -3437,8 +3896,11 @@
       <c r="C202">
         <v>4520</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -3451,8 +3913,11 @@
       <c r="D203">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -3462,8 +3927,11 @@
       <c r="C204">
         <v>6612</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -3474,7 +3942,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -3484,8 +3952,11 @@
       <c r="C206">
         <v>36573</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -3495,8 +3966,11 @@
       <c r="C207">
         <v>42388</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -3506,8 +3980,11 @@
       <c r="C208">
         <v>430</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -3520,8 +3997,11 @@
       <c r="D209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -3531,8 +4011,11 @@
       <c r="C210">
         <v>22809</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -3545,8 +4028,11 @@
       <c r="D211">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -3556,8 +4042,11 @@
       <c r="C212">
         <v>46695</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -3567,8 +4056,11 @@
       <c r="C213">
         <v>87198</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -3578,8 +4070,11 @@
       <c r="C214">
         <v>25613</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -3590,7 +4085,7 @@
         <v>2649893</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -3603,8 +4098,11 @@
       <c r="D216">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -3617,8 +4115,11 @@
       <c r="D217">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -3628,8 +4129,11 @@
       <c r="C218">
         <v>66797</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -3637,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -3647,8 +4151,11 @@
       <c r="C220">
         <v>766</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -3661,8 +4168,11 @@
       <c r="D221">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -3670,7 +4180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -3678,7 +4188,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -3691,8 +4201,11 @@
       <c r="D224">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -3702,8 +4215,11 @@
       <c r="C225">
         <v>773</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -3711,7 +4227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -3721,8 +4237,11 @@
       <c r="C227">
         <v>876</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -3732,8 +4251,11 @@
       <c r="C228">
         <v>31326</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -3741,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -3749,7 +4271,7 @@
         <v>16103</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -3762,8 +4284,11 @@
       <c r="D231">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -3773,8 +4298,11 @@
       <c r="C232">
         <v>20574</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -3784,8 +4312,11 @@
       <c r="C233">
         <v>14193</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
